--- a/Database structure.xlsx
+++ b/Database structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diligent Guest.DESKTOP-OATTCE0.000\Documents\Rashmi RR Personal documents\SMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D3E0F0-418E-4DD4-A27C-44F83D1C1911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741BA5BC-C172-4D22-AD2D-03DA2A8E22CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{965A7918-BCF0-41A2-B756-236D41A65886}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="80">
   <si>
     <t>Table</t>
   </si>
@@ -255,6 +255,33 @@
   </si>
   <si>
     <t>School.ID</t>
+  </si>
+  <si>
+    <t>UIDAI number</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Class_Number</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Principal</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>District</t>
   </si>
 </sst>
 </file>
@@ -961,11 +988,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50771461-36F1-4DCD-99DC-588FF85B103E}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,6 +1211,164 @@
       </c>
       <c r="G13" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Database structure.xlsx
+++ b/Database structure.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diligent Guest.DESKTOP-OATTCE0.000\Documents\Rashmi RR Personal documents\SMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741BA5BC-C172-4D22-AD2D-03DA2A8E22CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B522D28A-8BD1-438E-86BE-D13C49901DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{965A7918-BCF0-41A2-B756-236D41A65886}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{965A7918-BCF0-41A2-B756-236D41A65886}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
     <sheet name="Modules" sheetId="5" r:id="rId2"/>
-    <sheet name="Tables" sheetId="6" r:id="rId3"/>
-    <sheet name="User" sheetId="1" r:id="rId4"/>
-    <sheet name="Reporting" sheetId="4" r:id="rId5"/>
-    <sheet name="License" sheetId="3" r:id="rId6"/>
+    <sheet name="Modules- Not required" sheetId="7" r:id="rId3"/>
+    <sheet name="Tables" sheetId="6" r:id="rId4"/>
+    <sheet name="User" sheetId="1" r:id="rId5"/>
+    <sheet name="Reporting" sheetId="4" r:id="rId6"/>
+    <sheet name="License" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Modules!$A$1:$C$27</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="98">
   <si>
     <t>Table</t>
   </si>
@@ -282,6 +283,60 @@
   </si>
   <si>
     <t>District</t>
+  </si>
+  <si>
+    <t>Subject module</t>
+  </si>
+  <si>
+    <t>Modules Avail Yes/No</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Front Office</t>
+  </si>
+  <si>
+    <t>Student Information &gt;&gt; Online Admission</t>
+  </si>
+  <si>
+    <t>Student Information &gt;&gt; Multi class Student</t>
+  </si>
+  <si>
+    <t>Student Information &gt;&gt; Bulk delete</t>
+  </si>
+  <si>
+    <t>Student Information &gt;&gt; Student House</t>
+  </si>
+  <si>
+    <t>Student Information &gt;&gt; Disable Reason</t>
+  </si>
+  <si>
+    <t>Fees Collection</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Open for discussion</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Examinations &gt;&gt; Design and Print marksheet</t>
+  </si>
+  <si>
+    <t>Zoom Live classes</t>
+  </si>
+  <si>
+    <t>Gmeet live classes</t>
+  </si>
+  <si>
+    <t>Expenses (Bill submission)</t>
   </si>
 </sst>
 </file>
@@ -311,12 +366,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -331,9 +392,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,324 +735,516 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13BE4738-0EE7-43E4-A25E-DBE1C9BB3CBE}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBF8427-4717-4B01-9712-C357CA89C2E5}">
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="49.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C27" xr:uid="{13BE4738-0EE7-43E4-A25E-DBE1C9BB3CBE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50771461-36F1-4DCD-99DC-588FF85B103E}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
@@ -1377,7 +1631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4370D56-1215-4806-B1C3-52F7210B9591}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -1493,7 +1747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F9AA53-AD6D-422C-A95F-1C4E236CB4AB}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1545,7 +1799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBB4ADC-0CF0-4377-86C6-8C8DE64C6307}">
   <dimension ref="A1:B1"/>
   <sheetViews>

--- a/Database structure.xlsx
+++ b/Database structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diligent Guest.DESKTOP-OATTCE0.000\Documents\Rashmi RR Personal documents\SMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B522D28A-8BD1-438E-86BE-D13C49901DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C87682-A708-4D4C-A7A8-85F1F72B9A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{965A7918-BCF0-41A2-B756-236D41A65886}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <sheet name="License" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Modules!$A$1:$C$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Modules!$A$1:$C$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="100">
   <si>
     <t>Table</t>
   </si>
@@ -180,9 +180,6 @@
     <t>Student Image gallery</t>
   </si>
   <si>
-    <t>Reporting module</t>
-  </si>
-  <si>
     <t>Student timetable</t>
   </si>
   <si>
@@ -337,6 +334,15 @@
   </si>
   <si>
     <t>Expenses (Bill submission)</t>
+  </si>
+  <si>
+    <t>Reporting module - School level</t>
+  </si>
+  <si>
+    <t>Reporting module - Block level</t>
+  </si>
+  <si>
+    <t>Reporting module - Education Department level</t>
   </si>
 </sst>
 </file>
@@ -735,7 +741,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13BE4738-0EE7-43E4-A25E-DBE1C9BB3CBE}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -758,10 +764,10 @@
         <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -775,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -789,7 +795,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -803,7 +809,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -817,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -831,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -845,7 +851,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -859,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -873,7 +879,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -887,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -901,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -915,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -929,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -943,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -957,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -971,7 +977,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -985,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -993,13 +999,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1007,13 +1013,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1021,13 +1027,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1035,7 +1041,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1049,13 +1055,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1063,13 +1069,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1077,7 +1083,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1091,13 +1097,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1105,13 +1111,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1119,13 +1125,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1133,13 +1139,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,16 +1153,44 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1182,57 +1216,57 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1260,25 +1294,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1289,10 +1323,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1306,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3">
         <v>200</v>
@@ -1323,7 +1357,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4">
         <v>200</v>
@@ -1340,7 +1374,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5">
         <v>200</v>
@@ -1357,7 +1391,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1371,7 +1405,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7">
         <v>200</v>
@@ -1388,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1402,7 +1436,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1410,16 +1444,16 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
         <v>60</v>
       </c>
-      <c r="C10" t="s">
-        <v>61</v>
-      </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1427,13 +1461,13 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11">
         <v>200</v>
@@ -1444,13 +1478,13 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1458,13 +1492,13 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1472,13 +1506,13 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1486,13 +1520,13 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15">
         <v>600</v>
@@ -1503,13 +1537,13 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
         <v>73</v>
       </c>
-      <c r="C16" t="s">
-        <v>74</v>
-      </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1517,13 +1551,13 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E17">
         <v>200</v>
@@ -1534,13 +1568,13 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1548,13 +1582,13 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19">
         <v>200</v>
@@ -1565,13 +1599,13 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20">
         <v>600</v>
@@ -1582,16 +1616,16 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
         <v>76</v>
       </c>
-      <c r="C21" t="s">
-        <v>77</v>
-      </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1599,13 +1633,13 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1613,13 +1647,13 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>200</v>

--- a/Database structure.xlsx
+++ b/Database structure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diligent Guest.DESKTOP-OATTCE0.000\Documents\Rashmi RR Personal documents\SMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eyindia-my.sharepoint.com/personal/amit_kumar10_in_ey_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C87682-A708-4D4C-A7A8-85F1F72B9A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66F20591-29DC-4FAC-8CE8-B3D7C82D550E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{965A7918-BCF0-41A2-B756-236D41A65886}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{965A7918-BCF0-41A2-B756-236D41A65886}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="License" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Modules!$A$1:$C$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Modules!$A$1:$E$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,15 +35,36 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="99">
   <si>
     <t>Table</t>
   </si>
@@ -336,13 +357,10 @@
     <t>Expenses (Bill submission)</t>
   </si>
   <si>
-    <t>Reporting module - School level</t>
-  </si>
-  <si>
-    <t>Reporting module - Block level</t>
-  </si>
-  <si>
-    <t>Reporting module - Education Department level</t>
+    <t>Governmental Reporting Module</t>
+  </si>
+  <si>
+    <t>Internal School Reporting module</t>
   </si>
 </sst>
 </file>
@@ -722,14 +740,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -741,19 +759,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13BE4738-0EE7-43E4-A25E-DBE1C9BB3CBE}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -770,8 +790,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" cm="1">
+        <f t="array" ref="A2:A30">_xlfn.SEQUENCE(29)</f>
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -784,7 +805,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -798,7 +819,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -812,7 +833,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -826,7 +847,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -840,7 +861,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -854,7 +875,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -868,7 +889,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -882,7 +903,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -896,7 +917,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -910,7 +931,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -924,7 +945,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -938,7 +959,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -952,7 +973,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -966,7 +987,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -980,7 +1001,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -994,12 +1015,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1008,12 +1029,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1022,26 +1043,26 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1050,54 +1071,54 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1106,26 +1127,26 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -1134,12 +1155,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -1148,12 +1169,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -1162,12 +1183,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -1175,25 +1196,12 @@
       <c r="D30" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="E30" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E30" xr:uid="{5D40CC89-C3B9-46CA-803E-CBEC9C476F5E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1204,67 +1212,67 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="49.28515625" customWidth="1"/>
+    <col min="1" max="1" width="49.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -1283,16 +1291,16 @@
       <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" customWidth="1"/>
+    <col min="6" max="6" width="25.1796875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1315,7 +1323,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1329,7 +1337,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1346,7 +1354,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1363,7 +1371,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1380,7 +1388,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1394,7 +1402,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1411,7 +1419,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1425,7 +1433,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1439,7 +1447,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1456,7 +1464,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1473,7 +1481,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1487,7 +1495,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1501,7 +1509,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1515,7 +1523,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1532,7 +1540,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1546,7 +1554,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1563,7 +1571,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1577,7 +1585,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>4</v>
       </c>
@@ -1594,7 +1602,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>4</v>
       </c>
@@ -1611,7 +1619,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1628,7 +1636,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>4</v>
       </c>
@@ -1642,7 +1650,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1673,19 +1681,19 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1"/>
+    <col min="3" max="3" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1711,7 +1719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1719,7 +1727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1727,7 +1735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1735,7 +1743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1743,7 +1751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1751,7 +1759,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1759,7 +1767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1767,7 +1775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1789,13 +1797,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1806,7 +1814,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1817,7 +1825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1841,9 +1849,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1854,4 +1862,272 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010050EC6F6851A75542996569A59FF52A05" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b84026c8369fc51f24ec061e444f7535">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ff39e5c5-c0db-4329-b8ac-aaa24341992d" xmlns:ns4="3ea9d5aa-491b-4583-8915-644a9c7162d5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0fc21e2de7c82ff1b4e96e620a2744e8" ns3:_="" ns4:_="">
+    <xsd:import namespace="ff39e5c5-c0db-4329-b8ac-aaa24341992d"/>
+    <xsd:import namespace="3ea9d5aa-491b-4583-8915-644a9c7162d5"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ff39e5c5-c0db-4329-b8ac-aaa24341992d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="19" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3ea9d5aa-491b-4583-8915-644a9c7162d5" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="18" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2FD2E3D-252E-4CCA-9F4F-EF40DB9D97CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff39e5c5-c0db-4329-b8ac-aaa24341992d"/>
+    <ds:schemaRef ds:uri="3ea9d5aa-491b-4583-8915-644a9c7162d5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C762C8B-35EB-464B-9413-283F35DC1535}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2B557F3-CE0C-485E-8323-BCAEE85E3B0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>